--- a/Section 4/4. Making a scatterplot - Excel demo file.xlsx
+++ b/Section 4/4. Making a scatterplot - Excel demo file.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\OneDrive\Documents\Courses\Perfect charts in Excel\4. Creating meaningful scatterplots\4.3. Excel demo Scatterplot with trendlines and dynamic point size\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikit\OneDrive\Documents\Courses\Perfect charts in Excel\Perfect-Excel-Charts\Section 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="316" documentId="8_{41D562E4-D8C1-4812-A65C-16B2A78762E3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{1C2B6360-E366-47E6-B1DD-C4D263E24E8D}"/>
+  <xr:revisionPtr revIDLastSave="337" documentId="8_{41D562E4-D8C1-4812-A65C-16B2A78762E3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{AA5C1C23-3AE4-49E2-9F1B-475E499FCF51}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24300" windowHeight="13710" xr2:uid="{7E3BA44E-15BE-449B-B023-BCC6C62C868D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24300" windowHeight="13710" activeTab="1" xr2:uid="{7E3BA44E-15BE-449B-B023-BCC6C62C868D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet5" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="Fertility and GDP per capita" sheetId="5" r:id="rId1"/>
+    <sheet name="Sources" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="201">
   <si>
     <t>Country Name</t>
   </si>
@@ -603,6 +603,33 @@
   <si>
     <t>Population</t>
   </si>
+  <si>
+    <t>Fertility rate:</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SP.DYN.TFRT.IN</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/NY.GDP.MKTP.KD</t>
+  </si>
+  <si>
+    <t>GDP (constant 2010 US$)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple store ratings: </t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/ramamet4/app-store-apple-data-set-10k-apps/data</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SP.URB.TOTL.IN.ZS</t>
+  </si>
+  <si>
+    <t>https://data.worldbank.org/indicator/SP.POP.TOTL</t>
+  </si>
 </sst>
 </file>
 
@@ -798,7 +825,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$D$2</c:f>
+              <c:f>'Fertility and GDP per capita'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -845,7 +872,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet5!$C$3:$C$182</c:f>
+              <c:f>'Fertility and GDP per capita'!$C$3:$C$182</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="180"/>
@@ -1394,7 +1421,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet5!$D$3:$D$182</c:f>
+              <c:f>'Fertility and GDP per capita'!$D$3:$D$182</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="180"/>
@@ -2359,7 +2386,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$G$2</c:f>
+              <c:f>'Fertility and GDP per capita'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2392,7 +2419,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet5!$C$3:$C$182</c:f>
+              <c:f>'Fertility and GDP per capita'!$C$3:$C$182</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="180"/>
@@ -2941,7 +2968,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet5!$G$3:$G$182</c:f>
+              <c:f>'Fertility and GDP per capita'!$G$3:$G$182</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="180"/>
@@ -3500,7 +3527,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$H$2</c:f>
+              <c:f>'Fertility and GDP per capita'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3533,7 +3560,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet5!$C$3:$C$182</c:f>
+              <c:f>'Fertility and GDP per capita'!$C$3:$C$182</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="180"/>
@@ -4082,7 +4109,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet5!$H$3:$H$182</c:f>
+              <c:f>'Fertility and GDP per capita'!$H$3:$H$182</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="180"/>
@@ -4641,7 +4668,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$I$2</c:f>
+              <c:f>'Fertility and GDP per capita'!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4674,7 +4701,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet5!$C$3:$C$182</c:f>
+              <c:f>'Fertility and GDP per capita'!$C$3:$C$182</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="180"/>
@@ -5223,7 +5250,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet5!$I$3:$I$182</c:f>
+              <c:f>'Fertility and GDP per capita'!$I$3:$I$182</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="180"/>
@@ -5782,7 +5809,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$J$2</c:f>
+              <c:f>'Fertility and GDP per capita'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5815,7 +5842,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet5!$C$3:$C$182</c:f>
+              <c:f>'Fertility and GDP per capita'!$C$3:$C$182</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="180"/>
@@ -6364,7 +6391,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet5!$J$3:$J$182</c:f>
+              <c:f>'Fertility and GDP per capita'!$J$3:$J$182</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="180"/>
@@ -6923,7 +6950,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$K$2</c:f>
+              <c:f>'Fertility and GDP per capita'!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6956,7 +6983,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet5!$C$3:$C$182</c:f>
+              <c:f>'Fertility and GDP per capita'!$C$3:$C$182</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="180"/>
@@ -7505,7 +7532,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet5!$K$3:$K$182</c:f>
+              <c:f>'Fertility and GDP per capita'!$K$3:$K$182</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="180"/>
@@ -8064,7 +8091,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$L$2</c:f>
+              <c:f>'Fertility and GDP per capita'!$L$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8097,7 +8124,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet5!$C$3:$C$182</c:f>
+              <c:f>'Fertility and GDP per capita'!$C$3:$C$182</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="180"/>
@@ -8646,7 +8673,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet5!$L$3:$L$182</c:f>
+              <c:f>'Fertility and GDP per capita'!$L$3:$L$182</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="180"/>
@@ -9205,7 +9232,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$M$2</c:f>
+              <c:f>'Fertility and GDP per capita'!$M$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9242,7 +9269,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet5!$C$3:$C$182</c:f>
+              <c:f>'Fertility and GDP per capita'!$C$3:$C$182</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="180"/>
@@ -9791,7 +9818,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet5!$M$3:$M$182</c:f>
+              <c:f>'Fertility and GDP per capita'!$M$3:$M$182</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="180"/>
@@ -10736,7 +10763,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> bank data, 2016. Point size represents country's population</a:t>
+              <a:t> bank data, 2016. Point size represents country population</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -10789,7 +10816,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet5!$D$2</c:f>
+              <c:f>'Fertility and GDP per capita'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10812,7 +10839,7 @@
           <c:invertIfNegative val="0"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet5!$C$3:$C$182</c:f>
+              <c:f>'Fertility and GDP per capita'!$C$3:$C$182</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
                 <c:ptCount val="180"/>
@@ -11361,7 +11388,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet5!$D$3:$D$182</c:f>
+              <c:f>'Fertility and GDP per capita'!$D$3:$D$182</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="180"/>
@@ -11910,7 +11937,7 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>Sheet5!$F$3:$F$182</c:f>
+              <c:f>'Fertility and GDP per capita'!$F$3:$F$182</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="180"/>
@@ -14910,8 +14937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF5C39E-423C-42E6-AC49-998E567D17F9}">
   <dimension ref="B2:M182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L9" workbookViewId="0">
-      <selection activeCell="Z43" sqref="Z43"/>
+    <sheetView topLeftCell="K25" workbookViewId="0">
+      <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23074,53 +23101,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D5595C1-1998-4F9E-B9ED-E458AAF140D6}">
-  <dimension ref="C2:C8"/>
+  <dimension ref="B2:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C2" t="s">
-        <v>47</v>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C3" t="s">
-        <v>48</v>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>193</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C4" t="s">
-        <v>97</v>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>195</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>108</v>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C6" t="s">
-        <v>121</v>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C7" t="s">
-        <v>145</v>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C8" t="s">
-        <v>155</v>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="C2:C8">
-    <sortCondition ref="C2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>